--- a/simple-gantt-chart_ms.xlsx
+++ b/simple-gantt-chart_ms.xlsx
@@ -67,10 +67,11 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
   <si>
-    <t xml:space="preserve">Base de Dados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Nomes e Números]</t>
+    <t xml:space="preserve">Bases de Dados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t xml:space="preserve">Começo:</t>
@@ -719,8 +720,8 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1293,10 +1294,10 @@
   </sheetPr>
   <dimension ref="A1:AR42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E36" activeCellId="0" sqref="E36"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1412,7 +1413,7 @@
       <c r="AQ4" s="12"/>
       <c r="AR4" s="12"/>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9"/>
       <c r="D5" s="13"/>
       <c r="G5" s="14" t="s">
@@ -4253,7 +4254,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{38144A3E-7AF2-4840-841C-DB7E9E1616F8}</x14:id>
+          <x14:id>{DEDE46AA-F9E0-4B1B-925D-C6C6F5E21865}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4302,7 +4303,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{38144A3E-7AF2-4840-841C-DB7E9E1616F8}">
+          <x14:cfRule type="dataBar" id="{DEDE46AA-F9E0-4B1B-925D-C6C6F5E21865}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
